--- a/medicine/Enfance/Calouan/Calouan.xlsx
+++ b/medicine/Enfance/Calouan/Calouan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corinne Lesimple-Royer, dite Calouan, née le 6 avril 1967 à Lille, est une écrivaine et romancière française.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Formée au métier d'ingénieur en environnement, Corinne Lesimple-Royer devient enseignante et formatrice, puis découvre la pédagogie Montessori. Elle devient correctrice professionnelle en 2002 et publie son premier album jeunesse en 2005.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Roman
-Le doudou de Camille (Illustrations : Mimi des Bois ; Éd. Le lutin malin)  (ISBN 2-915546-04-5)
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le doudou de Camille (Illustrations : Mimi des Bois ; Éd. Le lutin malin)  (ISBN 2-915546-04-5)
 Les comptines de A à Z (ABCDaire), (Illustrations : Christophe Boncens ; Éd. Tamino/First)  (ISBN 2-87691-928-1)
 Laurie Bleue, sorcière, histoire + livret d'activités pédagogiques pour cycle 3 (Illustrations : Carole Delore ; Éd. Le lutin malin)  (ISBN 2-915546-06-1)
 La semaine de Lilou (Illustrations : Chloé Dreno ; Éd. La Cagouille)  (ISBN 2-915452-03-2)
@@ -580,9 +599,43 @@
 Aujourd’hui, Hugo est pilote de course  (ISBN 978-2-36653-2500)
 Aujourd’hui, Hugo est policier à moto  (ISBN 978-2-36653-2517)
 Toi, ma maman à l’infini (illus. Jérémy Parigi) – éd. La Pimpante (mai 2016)  (ISBN 978-2-37205-019-7)
-Ozone – éd. Carlo Zaglia jeunesse (sept. 2016)  (ISBN 979-1-0918-1132-3)
-Recueil
-Les petites comptines de Tamino (Illustrations : Christophe Boncens ; Éd. Tamino/First)
+Ozone – éd. Carlo Zaglia jeunesse (sept. 2016)  (ISBN 979-1-0918-1132-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Calouan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calouan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueil</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les petites comptines de Tamino (Illustrations : Christophe Boncens ; Éd. Tamino/First)
 Venez, venez vous amusez, papillon, fourmi et araignée  (ISBN 2-87691-937-0)
 Quand la sonnerie retentit, maître ananas rassemble les fruits  (ISBN 2-87691-938-9)
 Tulipe, rose ou lilas, vous voilà bien raplapla  (ISBN 2-87691-936-2)
@@ -660,103 +713,241 @@
 Je m’amuse au japon (Éd. Limonde)
 Les princesses et moi – éd. Hemma (sept. 2016) : tomes 1, 2, 3  (ISBN 978-2-508-03400-8, 978-2-508-03399-5 et 978-2-508-03401-5)
 365 histoires du soir - éd. Hemma (sept. 2016)
-Haut les filles ! (Éd. Quadrature)  (ISBN 978-2-930538-07-5)
-Livre musical
-Collection Pour t’écouter encore et encore… (Éd. Hemma) :
+Haut les filles ! (Éd. Quadrature)  (ISBN 978-2-930538-07-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calouan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calouan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livre musical</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Collection Pour t’écouter encore et encore… (Éd. Hemma) :
 Devine combien tu me manques
 Le vilain petit canard
 Le petit Chaperon rouge</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Calouan</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Calouan</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Presse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'amie universelle[1] (Illustrations : Christophe Boncens ; Éd. Keit Vimp Bev)
-Antoine prend son bain[2] (Illustrations : Owen Poho ; Éd. Keit Vimp Bev)
-L'amie universelle[3] (Illustrations : Pascal Lemaître ; Éd. Averbode)
-Coquille d'escargots[4] (Illustrations : Hugo Van Look ; Éd. Averbode)
-Julie, Margot et les poubelles[5] (Illustrations : Cécile Eyen ; Éd. Keit Vimp Bev)
-Un père-Noël de rêve[6] (Illustrations : Calouan ; Éd. Keit Vimp Bev)
-La photo de classe[7] (Illustrations : Frédéric Thiry ; Éd. Averbode)
-Joséphine est amoureuse[8] (Illustrations : Jean-Christophe Thibert ; Milan Presse)
-Caty veut danser[9] (Illustrations : Cécile Eyen ; Éd. Keit Vimp Bev)
-Une rentrée surprise[10] (Illustrations : Marie-Laure Viney ; Éd. Averbode)
-Les jours en couleurs[11] (Illustrations : Calouan ; Éd. Keit Vimp Bev)
-La danse de Marco[12] (Illustrations : Eric Fleury ; Éd. Keit Vimp Bev)
-Les vacances de Lola[13] (Illustrations : Caroline Palayer ; Turbulences presse)
-Noël du Nord au Sud[14] (Illustrations : Sophie Gallo-Geider ; Éd. Keit Vimp Bev)
-Le roi Edgar[15] (Illustrations : Elodie Coudray ; Turbulences presse)
-Jade, princesse de carnaval[16] (Illustrations : Claire Laffargue ; Disney Hachette Presse)
-A bride abattue[17] (Illustrations : Christian Maucler ; Éd. Averbode)
-Minicat[16] (Illustrations : Nancy Delvaux ; Disney Hachette Presse)
-La robe d’Annie[18] (Illustrations : Ursi ; Éd. Keit Vimp Bev)
-Aldo dans l’eau[19] (Illustrations : Fabrice Mosca ; Éd. Keit Vimp Bev)
-Léo, mon héros ! [20] (Illustrations : Jean-Pierre Lopez ; Disney Hachette Presse)
-Temps d'automne[21] (Illustrations : Sophie Verhille ; Éd. Keit Vimp Bev)
-Le gourmand de bonbons[22] (Illustrations : Véronique Abt ; Éd. Keit Vimp Bev)
-Debout[23] (comptine), (Illustrations : Emilie Vanvolsemn ; Disney Hachette Presse)
-Les mots magiques du sage Youkiko[24] (Illustrations : Camille Dubois ; Disney Hachette Presse)
-Ronan, l'ours blanc[25] (Illustrations : Patrice Chénot ; Éd. Averbode)
-La fête du printemps[26] (Fleurus presse)
-Comptine
-Bonne nuit[27] (Disney Hachette Presse)
-Petite coquette[24] (Disney Hachette Presse)
-Voilà l'hiver[28] (Disney Hachette Presse)
-Poésie à dessins
-Au cirque[29] (Disney Hachette Presse)
-Il neige [30] (Disney Hachette Presse)
-Louis est amoureux [31] (Disney Hachette Presse)
-Bonne fête maman[32] (Disney Hachette Presse)
-Au bord de la mare[33] (Disney Hachette Presse)
-Au bord de l’eau[34] (Disney Hachette Presse)
-Vive la piscine ![34] (Disney Hachette Presse)
-A la ferme[35] (Disney Hachette Presse)
-C’est l’automne[36] (Disney Hachette Presse)
-Chapeau pointu[36] (Disney Hachette Presse)
-Mon bonhomme de neige[37] (Disney Hachette Presse)
-Le magicien [38] (Disney Hachette Presse)
-La dent de Lisa[39] (Disney Hachette Presse)
-Tout propre[39] (Disney Hachette Presse)
-C’est le printemps[40] (Disney Hachette Presse)
-Pour toi, maman[41] (Disney Hachette Presse)
-La pêche aux crabes[42] (Disney Hachette Presse)
-Dans ma valise[43] (Disney Hachette Presse)
-Bon appétit[43] (Disney Hachette Presse)
-Au zoo[44] (Disney Hachette Presse)
-Bonne nuit[45] (Disney Hachette Presse)
-Qui a froid l’hiver ?[46] (Disney Hachette Presse)
-Jeux en couleurs[46] (Disney Hachette Presse)
-Bébés animaux[46] (Disney Hachette Presse)
-Marionnettes[46] (Disney Hachette Presse)
-Plouf [47] (Disney Hachette Presse)
-Marché d’été[48] (Disney Hachette Presse)
-C’est l’été[48] (Disney Hachette Presse)
-Poésie
-La Danse des flocons[49] (Disney Hachette Presse)</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'amie universelle (Illustrations : Christophe Boncens ; Éd. Keit Vimp Bev)
+Antoine prend son bain (Illustrations : Owen Poho ; Éd. Keit Vimp Bev)
+L'amie universelle (Illustrations : Pascal Lemaître ; Éd. Averbode)
+Coquille d'escargots (Illustrations : Hugo Van Look ; Éd. Averbode)
+Julie, Margot et les poubelles (Illustrations : Cécile Eyen ; Éd. Keit Vimp Bev)
+Un père-Noël de rêve (Illustrations : Calouan ; Éd. Keit Vimp Bev)
+La photo de classe (Illustrations : Frédéric Thiry ; Éd. Averbode)
+Joséphine est amoureuse (Illustrations : Jean-Christophe Thibert ; Milan Presse)
+Caty veut danser (Illustrations : Cécile Eyen ; Éd. Keit Vimp Bev)
+Une rentrée surprise (Illustrations : Marie-Laure Viney ; Éd. Averbode)
+Les jours en couleurs (Illustrations : Calouan ; Éd. Keit Vimp Bev)
+La danse de Marco (Illustrations : Eric Fleury ; Éd. Keit Vimp Bev)
+Les vacances de Lola (Illustrations : Caroline Palayer ; Turbulences presse)
+Noël du Nord au Sud (Illustrations : Sophie Gallo-Geider ; Éd. Keit Vimp Bev)
+Le roi Edgar (Illustrations : Elodie Coudray ; Turbulences presse)
+Jade, princesse de carnaval (Illustrations : Claire Laffargue ; Disney Hachette Presse)
+A bride abattue (Illustrations : Christian Maucler ; Éd. Averbode)
+Minicat (Illustrations : Nancy Delvaux ; Disney Hachette Presse)
+La robe d’Annie (Illustrations : Ursi ; Éd. Keit Vimp Bev)
+Aldo dans l’eau (Illustrations : Fabrice Mosca ; Éd. Keit Vimp Bev)
+Léo, mon héros !  (Illustrations : Jean-Pierre Lopez ; Disney Hachette Presse)
+Temps d'automne (Illustrations : Sophie Verhille ; Éd. Keit Vimp Bev)
+Le gourmand de bonbons (Illustrations : Véronique Abt ; Éd. Keit Vimp Bev)
+Debout (comptine), (Illustrations : Emilie Vanvolsemn ; Disney Hachette Presse)
+Les mots magiques du sage Youkiko (Illustrations : Camille Dubois ; Disney Hachette Presse)
+Ronan, l'ours blanc (Illustrations : Patrice Chénot ; Éd. Averbode)
+La fête du printemps (Fleurus presse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calouan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calouan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Presse</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comptine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bonne nuit (Disney Hachette Presse)
+Petite coquette (Disney Hachette Presse)
+Voilà l'hiver (Disney Hachette Presse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Calouan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calouan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Presse</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poésie à dessins</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Au cirque (Disney Hachette Presse)
+Il neige  (Disney Hachette Presse)
+Louis est amoureux  (Disney Hachette Presse)
+Bonne fête maman (Disney Hachette Presse)
+Au bord de la mare (Disney Hachette Presse)
+Au bord de l’eau (Disney Hachette Presse)
+Vive la piscine ! (Disney Hachette Presse)
+A la ferme (Disney Hachette Presse)
+C’est l’automne (Disney Hachette Presse)
+Chapeau pointu (Disney Hachette Presse)
+Mon bonhomme de neige (Disney Hachette Presse)
+Le magicien  (Disney Hachette Presse)
+La dent de Lisa (Disney Hachette Presse)
+Tout propre (Disney Hachette Presse)
+C’est le printemps (Disney Hachette Presse)
+Pour toi, maman (Disney Hachette Presse)
+La pêche aux crabes (Disney Hachette Presse)
+Dans ma valise (Disney Hachette Presse)
+Bon appétit (Disney Hachette Presse)
+Au zoo (Disney Hachette Presse)
+Bonne nuit (Disney Hachette Presse)
+Qui a froid l’hiver ? (Disney Hachette Presse)
+Jeux en couleurs (Disney Hachette Presse)
+Bébés animaux (Disney Hachette Presse)
+Marionnettes (Disney Hachette Presse)
+Plouf  (Disney Hachette Presse)
+Marché d’été (Disney Hachette Presse)
+C’est l’été (Disney Hachette Presse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Calouan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calouan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Presse</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Danse des flocons (Disney Hachette Presse)</t>
         </is>
       </c>
     </row>
